--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevik\IdeaProjects\com.RestAssuredTraining\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E91429-71A2-4D20-80E2-72519099A3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96C067-ABFF-4BC4-8C11-BA9C9F94037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,7 +136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -173,10 +179,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,21 +466,21 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>1010</v>
       </c>
@@ -520,7 +526,7 @@
         <v>1234567897</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1020</v>
       </c>
@@ -543,7 +549,7 @@
         <v>1234567897</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>1030</v>
       </c>

--- a/testData/Userdata.xlsx
+++ b/testData/Userdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cevik\IdeaProjects\com.RestAssuredTraining\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96C067-ABFF-4BC4-8C11-BA9C9F94037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B0DBC-F575-4985-A759-1F9435CCF5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,15 +48,6 @@
     <t>Phone</t>
   </si>
   <si>
-    <t>testuser1</t>
-  </si>
-  <si>
-    <t>testuser2</t>
-  </si>
-  <si>
-    <t>testuser3</t>
-  </si>
-  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -91,6 +82,15 @@
   </si>
   <si>
     <t>as@gmail.com</t>
+  </si>
+  <si>
+    <t>TestUser01</t>
+  </si>
+  <si>
+    <t>TestUser02</t>
+  </si>
+  <si>
+    <t>TestUser03</t>
   </si>
 </sst>
 </file>
@@ -136,13 +136,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,18 +466,18 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
@@ -508,19 +508,19 @@
         <v>1010</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" s="2">
         <v>1234567897</v>
@@ -531,19 +531,19 @@
         <v>1020</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>1234567897</v>
@@ -554,19 +554,19 @@
         <v>1030</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="2">
         <v>1234567897</v>
